--- a/Test Data Driven/AI-Generated/TC13-Verify Marking Test Results as Passed.xlsx
+++ b/Test Data Driven/AI-Generated/TC13-Verify Marking Test Results as Passed.xlsx
@@ -447,7 +447,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="78" customWidth="1" min="1" max="1"/>
-    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
     <col width="39" customWidth="1" min="3" max="3"/>
     <col width="41" customWidth="1" min="4" max="4"/>
     <col width="42" customWidth="1" min="5" max="5"/>
@@ -460,9 +460,9 @@
     <col width="41" customWidth="1" min="12" max="12"/>
     <col width="41" customWidth="1" min="13" max="13"/>
     <col width="112" customWidth="1" min="14" max="14"/>
-    <col width="44" customWidth="1" min="15" max="15"/>
-    <col width="46" customWidth="1" min="16" max="16"/>
-    <col width="46" customWidth="1" min="17" max="17"/>
+    <col width="46" customWidth="1" min="15" max="15"/>
+    <col width="48" customWidth="1" min="16" max="16"/>
+    <col width="48" customWidth="1" min="17" max="17"/>
     <col width="12" customWidth="1" min="18" max="18"/>
     <col width="35" customWidth="1" min="19" max="19"/>
     <col width="37" customWidth="1" min="20" max="20"/>
@@ -487,25 +487,25 @@
     <col width="26" customWidth="1" min="39" max="39"/>
     <col width="34" customWidth="1" min="40" max="40"/>
     <col width="29" customWidth="1" min="41" max="41"/>
-    <col width="29" customWidth="1" min="42" max="42"/>
-    <col width="31" customWidth="1" min="43" max="43"/>
-    <col width="32" customWidth="1" min="44" max="44"/>
-    <col width="34" customWidth="1" min="45" max="45"/>
-    <col width="29" customWidth="1" min="46" max="46"/>
-    <col width="31" customWidth="1" min="47" max="47"/>
-    <col width="30" customWidth="1" min="48" max="48"/>
-    <col width="23" customWidth="1" min="49" max="49"/>
+    <col width="27" customWidth="1" min="42" max="42"/>
+    <col width="29" customWidth="1" min="43" max="43"/>
+    <col width="30" customWidth="1" min="44" max="44"/>
+    <col width="32" customWidth="1" min="45" max="45"/>
+    <col width="27" customWidth="1" min="46" max="46"/>
+    <col width="29" customWidth="1" min="47" max="47"/>
+    <col width="33" customWidth="1" min="48" max="48"/>
+    <col width="26" customWidth="1" min="49" max="49"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>button_closeAlert_class</t>
+          <t>button_alertActions_class</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>div_testCaseComponents_internalText</t>
+          <t>div_testCaseData_internalText</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -565,22 +565,22 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>div_thumbnailImage_class</t>
+          <t>div_thumbnailImages_class</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>header_testRunInfo_internalRoleHeadingName</t>
+          <t>header_testRunTitles_internalRoleHeadingName</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>header_testRunInfo_internalRoleHeadingName_1</t>
+          <t>header_testRunTitles_internalRoleHeadingName_1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>header_testRunInfo_internalRoleHeadingName_2</t>
+          <t>header_testRunTitles_internalRoleHeadingName_2</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -705,42 +705,42 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunActions_plan_id</t>
+          <t>link_testRunLinks_plan_id</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunActions_plan_id_1</t>
+          <t>link_testRunLinks_plan_id_1</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunActions_project_id</t>
+          <t>link_testRunLinks_project_id</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunActions_project_id_1</t>
+          <t>link_testRunLinks_project_id_1</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunActions_team_id</t>
+          <t>link_testRunLinks_team_id</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>link_testRunActions_team_id_1</t>
+          <t>link_testRunLinks_team_id_1</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>span_logInfo_internalHasText</t>
+          <t>span_logDetails_internalHasText</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>span_logInfo_nthChild</t>
+          <t>span_logDetails_nthChild</t>
         </is>
       </c>
     </row>
